--- a/assets/excel_template/student_excel.xlsx
+++ b/assets/excel_template/student_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fyp\assets\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE31C71-6FC2-4D11-982C-9BE67220176E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF18644-0DF9-4703-9F3D-39720B5FB888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35610" yWindow="3195" windowWidth="21600" windowHeight="11295" xr2:uid="{D1691433-C8E8-4F7E-8866-F5CA32B3A99F}"/>
+    <workbookView xWindow="30585" yWindow="2340" windowWidth="24705" windowHeight="11295" xr2:uid="{D1691433-C8E8-4F7E-8866-F5CA32B3A99F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>MATRIC NUMBER</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Computer Sience</t>
   </si>
 </sst>
 </file>
@@ -425,13 +428,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -466,8 +470,11 @@
       <c r="C2">
         <v>123</v>
       </c>
-      <c r="E2">
-        <v>123</v>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2">
         <v>12234</v>
